--- a/debug/1.xlsx
+++ b/debug/1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,49 +514,49 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221007011</v>
+        <v>221014016</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A112010104056</t>
+          <t>A112010104082</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12A11BTH01-00010009</t>
+          <t>12A11BWH01-00160001</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248(彩)</t>
+          <t>11/24 MT 2247定子11/16入</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44894</v>
+        <v>44889</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>小2-1-1-1</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,11 +569,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221021011</v>
+        <v>221021017</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A106030108002</t>
+          <t>A109220108011</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -583,11 +583,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>60D23BWH0-00010002</t>
+          <t>92B23BTH0-00010002</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>小18-48-6-1</t>
+          <t>小7-5-2-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021044</v>
+        <v>221021077</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A108010104016</t>
+          <t>A112010104120</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,35 +638,35 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80A11BTH0-00010002</t>
+          <t>12A11BTH0-00017037</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 台積電扇葉</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,49 +679,49 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221021053</v>
+        <v>221028074</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A112013108050</t>
+          <t>A112010108001</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12AM23BTHF-0064</t>
+          <t>12A23BTH0-0001</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/30 WH定子11/21入</t>
+          <t>11/24 傑羅斯邦</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>44895</v>
+        <v>44889</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -734,11 +734,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221014008</v>
+        <v>221014022</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A108020108008</t>
+          <t>A108010108015</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -748,15 +748,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80B23BWH0-4101</t>
+          <t>80A23BWH0-00010002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>288</v>
+        <v>864</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/28  君峰</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
@@ -764,19 +764,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>小8-4-2-1</t>
+          <t>小14-0-0-1</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -785,88 +785,88 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021015</v>
+        <v>221007006</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A108020108012</t>
+          <t>A112010104022</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80B23BWH0-00010002</t>
+          <t>12A11BTM0-00010009</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>144</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>小8-4-2-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>21</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221007007</v>
+        <v>221021010</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A112010108048</t>
+          <t>A112020208014</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12A23BTM0-00010009</t>
+          <t>12B23STH0-0014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/29 鈞楷</t>
         </is>
       </c>
       <c r="J8" s="2" t="n">
@@ -874,46 +874,46 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>小10-1-2-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>286</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221028074</v>
+        <v>221021047</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A112010108001</t>
+          <t>A112020108057</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12A23BTH0-0001</t>
+          <t>12B23BTL0-0064</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -921,31 +921,31 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/24 傑羅斯邦</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>44889</v>
+        <v>44895</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>小7-1-1-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221021009</v>
+        <v>221014026</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A112020204010</t>
+          <t>A112710108002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -968,35 +968,35 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12B11STH0-0014</t>
+          <t>13A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>小7-3-1-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="M10" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1005,70 +1005,70 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221021087</v>
+        <v>220812025</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A112710108025</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13A23BWHN-C364</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>120</v>
+        <v>5000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>小8-3-1-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221021012</v>
+        <v>221021090</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A112013108009</t>
+          <t>A112710103001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1078,15 +1078,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12AM23BTHF-00010002</t>
+          <t>13A10BWH0-6701</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 EPPENDORF</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
@@ -1094,36 +1094,36 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>小8-3-1-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221021067</v>
+        <v>221014024</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A109213108004</t>
+          <t>A109220208008</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>92AM23BWHF-00010002</t>
+          <t>92B23STH0-00010002</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1149,124 +1149,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>小5-5-3-1</t>
+          <t>小10-5-2-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="M13" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2022/11/22</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2022/11/23</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>220812025</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>A112010108040</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>軸流扇00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>12A23BTH0-00010009</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>11/29 ORION 2248</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>小1-1-1-1</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2022/11/23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2022/11/23</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>221021108</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>A108020104002</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>80B11BWH0-0001</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>144</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>11/28 科祿柏</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>小8-4-2-1</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
